--- a/Dummy Table.xlsx
+++ b/Dummy Table.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mynametar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mynametar/Desktop/GitHub/oneID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BDB692-AB8F-9144-9494-93AD1F5F59FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4AD880-EE71-014F-A5A2-54710768450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{7D210CF6-6196-7E42-A265-A649D9A08AE7}"/>
   </bookViews>
   <sheets>
-    <sheet name="v_l_hosmap" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dummy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3803,7 +3802,7 @@
   <dimension ref="A1:BU202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44160,16 +44159,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1426D05-4453-9540-A678-E601A7BF5489}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>